--- a/testapi/Summoners.xlsx
+++ b/testapi/Summoners.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollib\Dropbox\combitech\dotnet\testapi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver Lillberg\Documents\CHampRecAPI\testapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AF5382-0B71-41F7-B644-8054818A313E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3C8798-64DF-46C9-BBFB-C6DF277F7D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="1155" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>"test1"</t>
   </si>
@@ -40,6 +41,12 @@
   </si>
   <si>
     <t>test4</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>test7</t>
   </si>
 </sst>
 </file>
@@ -358,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F13:G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,8 +398,34 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6379D36-6587-422B-A1D9-47C416F55EDC}">
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>